--- a/表格/Avatar.xlsx
+++ b/表格/Avatar.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\Demo1\表格\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A3050F-85F4-4D55-BD7D-FA02288E399D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-555" yWindow="1935" windowWidth="34095" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-555" yWindow="1935" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="t_Avatar" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -180,10 +174,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Footman/Death</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;string&gt;</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -208,27 +198,31 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Footman/Hit1|Footman/Hit2|Footman/Hit3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Footman/Attack</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>被击音效列表（随机播放）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击音效列表（随机播放）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio/Footman/Attack</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio/Footman/Hit1|Audio/Footman/Hit2|Audio/Footman/Hit3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio/Footman/Death</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -392,10 +386,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40% - 强调文字颜色 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="差" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="2"/>
+    <cellStyle name="差" xfId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="适中" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,17 +732,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
@@ -756,16 +750,16 @@
     <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="63.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="16" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -785,10 +779,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>24</v>
@@ -803,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -823,10 +817,10 @@
         <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
@@ -841,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -861,10 +855,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -879,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="39" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -899,10 +893,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>29</v>
@@ -917,7 +911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -937,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>21</v>
@@ -955,7 +949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
@@ -976,10 +970,10 @@
         <v>46</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -987,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="26.25" customHeight="1">
       <c r="A7" s="3">
         <v>1002</v>
       </c>
@@ -1008,10 +1002,10 @@
         <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1019,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="26.25" customHeight="1">
       <c r="A8" s="3">
         <v>1003</v>
       </c>
@@ -1040,10 +1034,10 @@
         <v>46</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1051,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="A9" s="3">
         <v>1004</v>
       </c>
@@ -1072,10 +1066,10 @@
         <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1083,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="20.25" customHeight="1">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1103,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/表格/Avatar.xlsx
+++ b/表格/Avatar.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\Demo1\表格\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EDD9F0-AA04-4E23-9B33-329AB9679DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-555" yWindow="1935" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t_Avatar" sheetId="1" r:id="rId1"/>
@@ -151,22 +157,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Model/Character/footman_Blue</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model/Character/footman_Green</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model/Character/footman_Red</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model/Character/footman_Yellow</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -215,14 +205,30 @@
   </si>
   <si>
     <t>Audio/Footman/Death</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity/Character/footman_Blue</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity/Character/footman_Green</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity/Character/footman_Red</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity/Character/footman_Yellow</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -386,10 +392,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40% - 强调文字颜色 4" xfId="2"/>
-    <cellStyle name="差" xfId="3"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="差" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1"/>
+    <cellStyle name="适中" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -732,17 +738,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
@@ -759,7 +765,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -779,10 +785,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>24</v>
@@ -797,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -817,10 +823,10 @@
         <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
@@ -835,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -855,10 +861,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -873,9 +879,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="39" customHeight="1">
+    <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>26</v>
@@ -893,10 +899,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>29</v>
@@ -911,9 +917,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>12</v>
@@ -931,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>21</v>
@@ -949,13 +955,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1">
+    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -967,13 +973,13 @@
         <v>4.5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -981,13 +987,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="26.25" customHeight="1">
+    <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1002</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -999,13 +1005,13 @@
         <v>4.5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1013,13 +1019,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26.25" customHeight="1">
+    <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1003</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -1031,13 +1037,13 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1045,13 +1051,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="24" customHeight="1">
+    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1004</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
@@ -1063,13 +1069,13 @@
         <v>4.5</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1077,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1">
+    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1097,14 +1103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
